--- a/jpcore-r4/feature/swg2-add-microbiology/CodeSystem-jp-undefined-cs.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/CodeSystem-jp-undefined-cs.xlsx
@@ -83,7 +83,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>未定義のコードシステム。使用する予定のコードシステムが利用できない場合や方針未決定の場合等に割り振る特別なリソースです。</t>
+    <t>未定義のコードシステム。使用する予定のコードシステムが利用できない場合や方針未決定の場合等に割り振る特別なリソースである。</t>
   </si>
   <si>
     <t>Purpose</t>
